--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang9/1.XuLyBH/XLBH2309_Sea.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang9/1.XuLyBH/XLBH2309_Sea.xlsx
@@ -15,15 +15,15 @@
     <sheet name="Sheet1" sheetId="53" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$4:$S$51</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$S$4:$S$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$S$4:$S$50</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Sheet1!$S$4:$S$50</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="103">
   <si>
     <t>STT</t>
   </si>
@@ -687,6 +687,30 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -704,30 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
+  <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1068,39 +1068,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="27"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="12"/>
       <c r="I2" s="31"/>
@@ -1133,57 +1133,57 @@
       <c r="V3" s="16"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="57" t="s">
+      <c r="K4" s="59"/>
+      <c r="L4" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="57" t="s">
+      <c r="R4" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="59" t="s">
         <v>52</v>
       </c>
       <c r="W4" s="28"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="50" t="s">
         <v>1</v>
       </c>
@@ -1214,16 +1214,16 @@
       <c r="K5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
-      <c r="S5" s="64"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="28"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="S6" s="45"/>
       <c r="T6" s="49"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="51" t="s">
         <v>17</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1328,7 +1328,7 @@
       <c r="R7" s="44"/>
       <c r="S7" s="45"/>
       <c r="T7" s="49"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="52"/>
       <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="49"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="52"/>
       <c r="V8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="49"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="52"/>
       <c r="V9" s="3" t="s">
         <v>50</v>
       </c>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="S10" s="45"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="52"/>
       <c r="V10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="S11" s="45"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="52"/>
       <c r="V11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="S12" s="45"/>
       <c r="T12" s="49"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="51" t="s">
         <v>18</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="S13" s="45"/>
       <c r="T13" s="49"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="52"/>
       <c r="V13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="S14" s="45"/>
       <c r="T14" s="49"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="52"/>
       <c r="V14" s="3" t="s">
         <v>35</v>
       </c>
@@ -1727,25 +1727,29 @@
         <v>43</v>
       </c>
       <c r="E15" s="46">
-        <v>868183038019670</v>
+        <v>868183034799390</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="37"/>
+      <c r="H15" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="I15" s="40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J15" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K15" s="43"/>
       <c r="L15" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M15" s="43" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="41" t="s">
@@ -1758,13 +1762,13 @@
         <v>18</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="45"/>
       <c r="T15" s="49"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="53"/>
       <c r="V15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W15" s="49"/>
     </row>
@@ -1780,7 +1784,7 @@
         <v>43</v>
       </c>
       <c r="E16" s="46">
-        <v>868183034799390</v>
+        <v>868183038494980</v>
       </c>
       <c r="F16" s="47"/>
       <c r="G16" s="37" t="s">
@@ -1790,19 +1794,17 @@
         <v>63</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J16" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="43" t="s">
         <v>65</v>
       </c>
+      <c r="K16" s="42"/>
       <c r="L16" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M16" s="43" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="41" t="s">
@@ -1815,14 +1817,12 @@
         <v>18</v>
       </c>
       <c r="R16" s="44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S16" s="45"/>
       <c r="T16" s="49"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="U16" s="49"/>
+      <c r="V16" s="9"/>
       <c r="W16" s="49"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,41 +1837,31 @@
         <v>43</v>
       </c>
       <c r="E17" s="46">
-        <v>868183038494980</v>
+        <v>868183038486127</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>65</v>
-      </c>
+      <c r="H17" s="41"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="43" t="s">
-        <v>75</v>
+      <c r="L17" s="42" t="s">
+        <v>86</v>
       </c>
       <c r="M17" s="43" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="N17" s="41"/>
       <c r="O17" s="41" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="P17" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="44" t="s">
-        <v>24</v>
-      </c>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="44"/>
       <c r="S17" s="45"/>
       <c r="T17" s="49"/>
       <c r="U17" s="49"/>
@@ -1890,36 +1880,48 @@
         <v>43</v>
       </c>
       <c r="E18" s="46">
-        <v>868183038486127</v>
+        <v>867857039897561</v>
       </c>
       <c r="F18" s="47"/>
       <c r="G18" s="37" t="s">
         <v>62</v>
       </c>
       <c r="H18" s="41"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42" t="s">
-        <v>86</v>
+      <c r="I18" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="M18" s="43" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="P18" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="44"/>
+      <c r="Q18" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="45"/>
       <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="49"/>
+      <c r="U18" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="29"/>
     </row>
     <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
@@ -1933,9 +1935,9 @@
         <v>43</v>
       </c>
       <c r="E19" s="46">
-        <v>867857039897561</v>
-      </c>
-      <c r="F19" s="47"/>
+        <v>868183033856126</v>
+      </c>
+      <c r="F19" s="37"/>
       <c r="G19" s="37" t="s">
         <v>62</v>
       </c>
@@ -1943,15 +1945,17 @@
       <c r="I19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="J19" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="43"/>
       <c r="L19" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M19" s="43" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="41" t="s">
@@ -1964,17 +1968,17 @@
         <v>18</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" s="45"/>
       <c r="T19" s="49"/>
-      <c r="U19" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="V19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="W19" s="29"/>
+      <c r="U19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="3">
+        <v>4</v>
+      </c>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
@@ -1985,30 +1989,28 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="37" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E20" s="46">
-        <v>868183033856126</v>
+        <v>861881051084425</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="J20" s="42"/>
       <c r="K20" s="43" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="L20" s="43" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="M20" s="43" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41" t="s">
@@ -2018,18 +2020,19 @@
         <v>69</v>
       </c>
       <c r="Q20" s="41" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="R20" s="44" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="S20" s="45"/>
       <c r="T20" s="49"/>
       <c r="U20" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="V20" s="3">
-        <v>4</v>
+        <f>COUNTIF($Q$6:$Q$50,"PC")</f>
+        <v>3</v>
       </c>
       <c r="W20" s="49"/>
     </row>
@@ -2042,28 +2045,28 @@
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="37" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="E21" s="46">
-        <v>861881051084425</v>
-      </c>
-      <c r="F21" s="37"/>
+        <v>868183035938708</v>
+      </c>
+      <c r="F21" s="47"/>
       <c r="G21" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="H21" s="45"/>
       <c r="I21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43" t="s">
-        <v>90</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="43"/>
       <c r="L21" s="43" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="M21" s="43" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="41" t="s">
@@ -2073,20 +2076,17 @@
         <v>69</v>
       </c>
       <c r="Q21" s="41" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="S21" s="45"/>
       <c r="T21" s="49"/>
       <c r="U21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V21" s="3">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>3</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="V21" s="3"/>
       <c r="W21" s="49"/>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>43</v>
       </c>
       <c r="E22" s="46">
-        <v>868183035938708</v>
+        <v>868183037806663</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="37" t="s">
@@ -2136,10 +2136,8 @@
       </c>
       <c r="S22" s="45"/>
       <c r="T22" s="49"/>
-      <c r="U22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V22" s="3"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="9"/>
       <c r="W22" s="49"/>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2152,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="46">
-        <v>868183037806663</v>
+        <v>868183033847695</v>
       </c>
       <c r="F23" s="47"/>
       <c r="G23" s="37" t="s">
@@ -2162,17 +2160,17 @@
       </c>
       <c r="H23" s="45"/>
       <c r="I23" s="40" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>65</v>
       </c>
       <c r="K23" s="43"/>
       <c r="L23" s="43" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="N23" s="41"/>
       <c r="O23" s="41" t="s">
@@ -2182,10 +2180,10 @@
         <v>69</v>
       </c>
       <c r="Q23" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S23" s="45"/>
       <c r="T23" s="49"/>
@@ -2205,7 +2203,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="46">
-        <v>868183033847695</v>
+        <v>867857039917179</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="37" t="s">
@@ -2213,17 +2211,19 @@
       </c>
       <c r="H24" s="45"/>
       <c r="I24" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="43"/>
       <c r="L24" s="43" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="M24" s="43" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="N24" s="41"/>
       <c r="O24" s="41" t="s">
@@ -2233,16 +2233,20 @@
         <v>69</v>
       </c>
       <c r="Q24" s="41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R24" s="44" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S24" s="45"/>
       <c r="T24" s="49"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="49"/>
+      <c r="U24" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W24" s="29"/>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
@@ -2251,32 +2255,32 @@
       <c r="B25" s="38">
         <v>45174</v>
       </c>
-      <c r="C25" s="38"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="46">
-        <v>867857039917179</v>
-      </c>
-      <c r="F25" s="47"/>
+        <v>868183034769401</v>
+      </c>
+      <c r="F25" s="30"/>
       <c r="G25" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="45"/>
+      <c r="H25" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="I25" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="43" t="s">
         <v>65</v>
       </c>
+      <c r="K25" s="25"/>
       <c r="L25" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M25" s="43" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N25" s="41"/>
       <c r="O25" s="41" t="s">
@@ -2289,46 +2293,45 @@
         <v>18</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="45"/>
+        <v>24</v>
+      </c>
+      <c r="S25" s="3"/>
       <c r="T25" s="49"/>
-      <c r="U25" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="V25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="W25" s="29"/>
+      <c r="U25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V25" s="3">
+        <f>COUNTIF($R$6:$R$50,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="45">
         <v>21</v>
       </c>
       <c r="B26" s="38">
         <v>45174</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="46">
-        <v>868183034769401</v>
-      </c>
-      <c r="F26" s="30"/>
+        <v>868183037806291</v>
+      </c>
+      <c r="F26" s="47"/>
       <c r="G26" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="H26" s="45"/>
       <c r="I26" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="43" t="s">
         <v>75</v>
       </c>
@@ -2348,19 +2351,19 @@
       <c r="R26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="S26" s="3"/>
+      <c r="S26" s="45"/>
       <c r="T26" s="49"/>
       <c r="U26" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="V26" s="3">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <f>COUNTIF($R$6:$R$50,"*GSM*")</f>
         <v>0</v>
       </c>
       <c r="W26" s="49"/>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="45">
         <v>22</v>
       </c>
       <c r="B27" s="38">
@@ -2371,25 +2374,29 @@
         <v>43</v>
       </c>
       <c r="E27" s="46">
-        <v>868183037806291</v>
+        <v>867717030420484</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="45"/>
+      <c r="H27" s="37" t="s">
+        <v>63</v>
+      </c>
       <c r="I27" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="43"/>
       <c r="L27" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M27" s="43" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="N27" s="41"/>
       <c r="O27" s="41" t="s">
@@ -2402,21 +2409,21 @@
         <v>18</v>
       </c>
       <c r="R27" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S27" s="45"/>
       <c r="T27" s="49"/>
       <c r="U27" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="V27" s="3">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <f>COUNTIF($R$6:$R$50,"*GPS*")</f>
         <v>0</v>
       </c>
       <c r="W27" s="49"/>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="45">
         <v>23</v>
       </c>
       <c r="B28" s="38">
@@ -2427,7 +2434,7 @@
         <v>43</v>
       </c>
       <c r="E28" s="46">
-        <v>867717030420484</v>
+        <v>868183038615287</v>
       </c>
       <c r="F28" s="47"/>
       <c r="G28" s="37" t="s">
@@ -2437,19 +2444,17 @@
         <v>63</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="43" t="s">
         <v>65</v>
       </c>
+      <c r="K28" s="43"/>
       <c r="L28" s="43" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M28" s="43" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="N28" s="41"/>
       <c r="O28" s="41" t="s">
@@ -2459,24 +2464,24 @@
         <v>69</v>
       </c>
       <c r="Q28" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R28" s="44" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="S28" s="45"/>
       <c r="T28" s="49"/>
       <c r="U28" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="V28" s="3">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <f>COUNTIF($R$6:$R$50,"*NG*")</f>
+        <v>6</v>
       </c>
       <c r="W28" s="49"/>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="45">
         <v>24</v>
       </c>
       <c r="B29" s="38">
@@ -2487,27 +2492,25 @@
         <v>43</v>
       </c>
       <c r="E29" s="46">
-        <v>868183038615287</v>
+        <v>868183033880696</v>
       </c>
       <c r="F29" s="47"/>
       <c r="G29" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="37" t="s">
-        <v>63</v>
-      </c>
+      <c r="H29" s="37"/>
       <c r="I29" s="40" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J29" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43" t="s">
-        <v>80</v>
-      </c>
+      <c r="L29" s="43"/>
       <c r="M29" s="43" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="N29" s="41"/>
       <c r="O29" s="41" t="s">
@@ -2517,24 +2520,22 @@
         <v>69</v>
       </c>
       <c r="Q29" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="R29" s="44" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="R29" s="44"/>
       <c r="S29" s="45"/>
       <c r="T29" s="49"/>
       <c r="U29" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="V29" s="3">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>6</v>
+        <f>COUNTIF($R$6:$R$50,"*I/O*")</f>
+        <v>0</v>
       </c>
       <c r="W29" s="49"/>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="45">
         <v>25</v>
       </c>
       <c r="B30" s="38">
@@ -2545,25 +2546,25 @@
         <v>43</v>
       </c>
       <c r="E30" s="46">
-        <v>868183033880696</v>
+        <v>868183037793481</v>
       </c>
       <c r="F30" s="47"/>
       <c r="G30" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="40" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="L30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43" t="s">
+        <v>75</v>
+      </c>
       <c r="M30" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N30" s="41"/>
       <c r="O30" s="41" t="s">
@@ -2575,20 +2576,19 @@
       <c r="Q30" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="44"/>
+      <c r="R30" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="S30" s="45"/>
       <c r="T30" s="49"/>
       <c r="U30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="3">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="V30" s="3"/>
       <c r="W30" s="49"/>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="45">
         <v>26</v>
       </c>
       <c r="B31" s="38">
@@ -2599,25 +2599,27 @@
         <v>43</v>
       </c>
       <c r="E31" s="46">
-        <v>868183037793481</v>
+        <v>868183038056771</v>
       </c>
       <c r="F31" s="47"/>
       <c r="G31" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="I31" s="40" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J31" s="41" t="s">
         <v>65</v>
       </c>
       <c r="K31" s="43"/>
       <c r="L31" s="43" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="M31" s="43" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="N31" s="41"/>
       <c r="O31" s="41" t="s">
@@ -2627,21 +2629,24 @@
         <v>69</v>
       </c>
       <c r="Q31" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R31" s="44" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S31" s="45"/>
       <c r="T31" s="49"/>
       <c r="U31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V31" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="V31" s="3">
+        <f>COUNTIF($R$6:$R$50,"*MCH*")</f>
+        <v>1</v>
+      </c>
       <c r="W31" s="49"/>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="45">
         <v>27</v>
       </c>
       <c r="B32" s="38">
@@ -2652,27 +2657,27 @@
         <v>43</v>
       </c>
       <c r="E32" s="46">
-        <v>868183038056771</v>
+        <v>860157040221910</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>63</v>
-      </c>
+      <c r="H32" s="41"/>
       <c r="I32" s="40" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J32" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="43"/>
       <c r="L32" s="43" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M32" s="43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N32" s="41"/>
       <c r="O32" s="41" t="s">
@@ -2682,24 +2687,24 @@
         <v>69</v>
       </c>
       <c r="Q32" s="41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R32" s="44" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S32" s="45"/>
       <c r="T32" s="49"/>
       <c r="U32" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="V32" s="3">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <f>COUNTIF($R$6:$R$50,"*SF*")</f>
         <v>1</v>
       </c>
       <c r="W32" s="49"/>
     </row>
     <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="45">
         <v>28</v>
       </c>
       <c r="B33" s="38">
@@ -2710,7 +2715,7 @@
         <v>43</v>
       </c>
       <c r="E33" s="46">
-        <v>860157040221910</v>
+        <v>868183034738661</v>
       </c>
       <c r="F33" s="47"/>
       <c r="G33" s="37" t="s">
@@ -2718,19 +2723,19 @@
       </c>
       <c r="H33" s="41"/>
       <c r="I33" s="40" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K33" s="41" t="s">
         <v>65</v>
       </c>
       <c r="L33" s="43" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="M33" s="43" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="N33" s="41"/>
       <c r="O33" s="41" t="s">
@@ -2743,21 +2748,21 @@
         <v>18</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S33" s="45"/>
       <c r="T33" s="49"/>
       <c r="U33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V33" s="3">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <f>COUNTIF($R$6:$R$50,"*RTB*")</f>
         <v>1</v>
       </c>
       <c r="W33" s="49"/>
     </row>
     <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="45">
         <v>29</v>
       </c>
       <c r="B34" s="38">
@@ -2768,27 +2773,27 @@
         <v>43</v>
       </c>
       <c r="E34" s="46">
-        <v>868183034738661</v>
+        <v>868183037834293</v>
       </c>
       <c r="F34" s="47"/>
       <c r="G34" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="41"/>
+      <c r="H34" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="I34" s="40" t="s">
         <v>95</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="41" t="s">
         <v>65</v>
       </c>
+      <c r="K34" s="43"/>
       <c r="L34" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M34" s="43" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N34" s="41"/>
       <c r="O34" s="41" t="s">
@@ -2801,47 +2806,42 @@
         <v>18</v>
       </c>
       <c r="R34" s="44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S34" s="45"/>
       <c r="T34" s="49"/>
       <c r="U34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V34" s="3">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="V34" s="3"/>
       <c r="W34" s="49"/>
     </row>
     <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="45">
         <v>30</v>
       </c>
       <c r="B35" s="38">
         <v>45174</v>
       </c>
-      <c r="C35" s="38"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E35" s="46">
-        <v>868183037834293</v>
-      </c>
-      <c r="F35" s="47"/>
+        <v>868183037812489</v>
+      </c>
+      <c r="F35" s="30"/>
       <c r="G35" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="41" t="s">
-        <v>63</v>
-      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="40" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="J35" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="43"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="43" t="s">
         <v>75</v>
       </c>
@@ -2861,16 +2861,16 @@
       <c r="R35" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="S35" s="45"/>
+      <c r="S35" s="3"/>
       <c r="T35" s="49"/>
       <c r="U35" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="49"/>
     </row>
     <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="45">
         <v>31</v>
       </c>
       <c r="B36" s="38">
@@ -2881,18 +2881,20 @@
         <v>43</v>
       </c>
       <c r="E36" s="46">
-        <v>868183037812489</v>
+        <v>868183038519661</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="I36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="41" t="s">
-        <v>65</v>
+        <v>85</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>76</v>
       </c>
       <c r="K36" s="25"/>
       <c r="L36" s="43" t="s">
@@ -2916,14 +2918,14 @@
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="49"/>
-      <c r="U36" s="3" t="s">
-        <v>28</v>
+      <c r="U36" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="V36" s="3"/>
       <c r="W36" s="49"/>
     </row>
     <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="45">
         <v>32</v>
       </c>
       <c r="B37" s="38">
@@ -2934,27 +2936,27 @@
         <v>43</v>
       </c>
       <c r="E37" s="46">
-        <v>868183038519661</v>
+        <v>867857039906339</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>63</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="25"/>
+        <v>64</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="L37" s="43" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="M37" s="43" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="N37" s="41"/>
       <c r="O37" s="41" t="s">
@@ -2964,21 +2966,19 @@
         <v>69</v>
       </c>
       <c r="Q37" s="41" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="R37" s="44" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="49"/>
-      <c r="U37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V37" s="3"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="49"/>
     </row>
     <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="45">
         <v>33</v>
       </c>
       <c r="B38" s="38">
@@ -2989,27 +2989,29 @@
         <v>43</v>
       </c>
       <c r="E38" s="46">
-        <v>867857039906339</v>
+        <v>868183038056862</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="41" t="s">
+        <v>63</v>
+      </c>
       <c r="I38" s="40" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="K38" s="41" t="s">
         <v>65</v>
       </c>
       <c r="L38" s="43" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="M38" s="43" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="N38" s="41"/>
       <c r="O38" s="41" t="s">
@@ -3019,10 +3021,10 @@
         <v>69</v>
       </c>
       <c r="Q38" s="41" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="R38" s="44" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="49"/>
@@ -3031,7 +3033,7 @@
       <c r="W38" s="49"/>
     </row>
     <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="45">
         <v>34</v>
       </c>
       <c r="B39" s="38">
@@ -3042,7 +3044,7 @@
         <v>43</v>
       </c>
       <c r="E39" s="46">
-        <v>868183038056862</v>
+        <v>868183034812888</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="37" t="s">
@@ -3052,10 +3054,10 @@
         <v>63</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="K39" s="41" t="s">
         <v>65</v>
@@ -3064,7 +3066,7 @@
         <v>75</v>
       </c>
       <c r="M39" s="43" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="N39" s="41"/>
       <c r="O39" s="41" t="s">
@@ -3077,16 +3079,21 @@
         <v>18</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="49"/>
-      <c r="U39" s="49"/>
-      <c r="V39" s="9"/>
+      <c r="U39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="3">
+        <f>COUNTIF($O$6:$O$50,"*DM*")</f>
+        <v>0</v>
+      </c>
       <c r="W39" s="49"/>
     </row>
     <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="45">
         <v>35</v>
       </c>
       <c r="B40" s="38">
@@ -3097,29 +3104,25 @@
         <v>43</v>
       </c>
       <c r="E40" s="46">
-        <v>868183034812888</v>
+        <v>868183035856603</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="41" t="s">
-        <v>63</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="40" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J40" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="K40" s="41" t="s">
         <v>65</v>
       </c>
+      <c r="K40" s="25"/>
       <c r="L40" s="43" t="s">
         <v>75</v>
       </c>
       <c r="M40" s="43" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N40" s="41"/>
       <c r="O40" s="41" t="s">
@@ -3132,77 +3135,48 @@
         <v>18</v>
       </c>
       <c r="R40" s="44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="49"/>
       <c r="U40" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V40" s="3">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
+        <f>COUNTIF($O$6:$O$50,"*KS*")</f>
+        <v>1</v>
       </c>
       <c r="W40" s="49"/>
     </row>
     <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="45">
         <v>36</v>
       </c>
-      <c r="B41" s="38">
-        <v>45174</v>
-      </c>
+      <c r="B41" s="22"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="46">
-        <v>868183035856603</v>
-      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="37" t="s">
-        <v>62</v>
-      </c>
+      <c r="G41" s="23"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="41" t="s">
-        <v>65</v>
-      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="1"/>
       <c r="K41" s="25"/>
-      <c r="L41" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="M41" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="P41" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q41" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="R41" s="44" t="s">
-        <v>24</v>
-      </c>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
       <c r="S41" s="3"/>
       <c r="T41" s="49"/>
-      <c r="U41" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="V41" s="3">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
-      </c>
+      <c r="U41" s="49"/>
+      <c r="V41" s="9"/>
       <c r="W41" s="49"/>
     </row>
     <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="45">
         <v>37</v>
       </c>
       <c r="B42" s="22"/>
@@ -3229,7 +3203,7 @@
       <c r="W42" s="49"/>
     </row>
     <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="45">
         <v>38</v>
       </c>
       <c r="B43" s="22"/>
@@ -3251,12 +3225,21 @@
       <c r="R43" s="2"/>
       <c r="S43" s="3"/>
       <c r="T43" s="49"/>
-      <c r="U43" s="49"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="49"/>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="45">
         <v>39</v>
       </c>
       <c r="B44" s="22"/>
@@ -3279,20 +3262,23 @@
       <c r="S44" s="3"/>
       <c r="T44" s="49"/>
       <c r="U44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="W44" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="V44" s="3">
+        <f>COUNTIFS($D$6:$D$299,"TG102LE",$H$6:$H$299,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <f>COUNTIFS($D$6:$D$299,"TG102LE",$H$6:$H$299,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <f>COUNTIFS($D$6:$D$299,"TG102LE",$H$6:$H$299,"*Lô 2-21*")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="45">
         <v>40</v>
       </c>
       <c r="B45" s="22"/>
@@ -3315,23 +3301,23 @@
       <c r="S45" s="3"/>
       <c r="T45" s="49"/>
       <c r="U45" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102LE-4G",$H$6:$H$299,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102LE-4G",$H$6:$H$299,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102LE-4G",$H$6:$H$299,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="45">
         <v>41</v>
       </c>
       <c r="B46" s="22"/>
@@ -3354,23 +3340,23 @@
       <c r="S46" s="3"/>
       <c r="T46" s="49"/>
       <c r="U46" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="V46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102E",$H$6:$H$299,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102E",$H$6:$H$299,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"TG102E",$H$6:$H$299,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="45">
         <v>42</v>
       </c>
       <c r="B47" s="22"/>
@@ -3391,25 +3377,28 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="2"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="49"/>
+      <c r="T47" s="20" t="e">
+        <f>COUNTIF(#REF!,"*GSM*")</f>
+        <v>#REF!</v>
+      </c>
       <c r="U47" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="V47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <f>COUNTIFS($D$6:$D$299,"ACT-01",$H$6:$H$299,"*Lô 3-20*")</f>
         <v>0</v>
       </c>
       <c r="W47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"ACT-01",$H$6:$H$299,"*Lô 1-21*")</f>
         <v>0</v>
       </c>
       <c r="X47" s="3">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <f>COUNTIFS($D$6:$D$299,"ACT-01",$H$6:$H$299,"*Lô 2-21*")</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="45">
         <v>43</v>
       </c>
       <c r="B48" s="22"/>
@@ -3430,28 +3419,14 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="2"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="20" t="e">
-        <f>COUNTIF(#REF!,"*GSM*")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
+      <c r="T48" s="20"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="19"/>
     </row>
     <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="45">
         <v>44</v>
       </c>
       <c r="B49" s="22"/>
@@ -3460,9 +3435,9 @@
       <c r="E49" s="24"/>
       <c r="F49" s="30"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="18"/>
       <c r="I49" s="34"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
@@ -3471,7 +3446,7 @@
       <c r="P49" s="25"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
+      <c r="S49" s="17"/>
       <c r="T49" s="20"/>
       <c r="U49" s="26"/>
       <c r="V49" s="26"/>
@@ -3479,7 +3454,7 @@
       <c r="X49" s="19"/>
     </row>
     <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+      <c r="A50" s="45">
         <v>45</v>
       </c>
       <c r="B50" s="22"/>
@@ -3488,9 +3463,9 @@
       <c r="E50" s="24"/>
       <c r="F50" s="30"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="18"/>
+      <c r="H50" s="1"/>
       <c r="I50" s="34"/>
-      <c r="J50" s="18"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
@@ -3499,7 +3474,7 @@
       <c r="P50" s="25"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="17"/>
+      <c r="S50" s="3"/>
       <c r="T50" s="20"/>
       <c r="U50" s="26"/>
       <c r="V50" s="26"/>
@@ -3507,7 +3482,7 @@
       <c r="X50" s="19"/>
     </row>
     <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="45">
         <v>46</v>
       </c>
       <c r="B51" s="22"/>
@@ -3516,9 +3491,9 @@
       <c r="E51" s="24"/>
       <c r="F51" s="30"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="19"/>
       <c r="I51" s="34"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
@@ -3527,7 +3502,7 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="3"/>
+      <c r="S51" s="19"/>
       <c r="T51" s="20"/>
       <c r="U51" s="26"/>
       <c r="V51" s="26"/>
@@ -3535,7 +3510,7 @@
       <c r="X51" s="19"/>
     </row>
     <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="45">
         <v>47</v>
       </c>
       <c r="B52" s="22"/>
@@ -3563,7 +3538,7 @@
       <c r="X52" s="19"/>
     </row>
     <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="45">
         <v>48</v>
       </c>
       <c r="B53" s="22"/>
@@ -3591,7 +3566,7 @@
       <c r="X53" s="19"/>
     </row>
     <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="45">
         <v>49</v>
       </c>
       <c r="B54" s="22"/>
@@ -3612,14 +3587,14 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="2"/>
       <c r="S54" s="19"/>
-      <c r="T54" s="20"/>
+      <c r="T54" s="21"/>
       <c r="U54" s="26"/>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
       <c r="X54" s="19"/>
     </row>
     <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="45">
         <v>50</v>
       </c>
       <c r="B55" s="22"/>
@@ -3640,14 +3615,12 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="2"/>
       <c r="S55" s="19"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
-      <c r="X55" s="19"/>
+      <c r="U55" s="49"/>
+      <c r="V55" s="49"/>
+      <c r="W55" s="49"/>
     </row>
     <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="45">
         <v>51</v>
       </c>
       <c r="B56" s="22"/>
@@ -3673,7 +3646,7 @@
       <c r="W56" s="49"/>
     </row>
     <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="45">
         <v>52</v>
       </c>
       <c r="B57" s="22"/>
@@ -3694,19 +3667,16 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="2"/>
       <c r="S57" s="19"/>
-      <c r="U57" s="49"/>
-      <c r="V57" s="49"/>
-      <c r="W57" s="49"/>
     </row>
     <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="45">
         <v>53</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="23"/>
       <c r="E58" s="24"/>
-      <c r="F58" s="30"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="19"/>
       <c r="I58" s="34"/>
@@ -3722,7 +3692,7 @@
       <c r="S58" s="19"/>
     </row>
     <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="45">
         <v>54</v>
       </c>
       <c r="B59" s="22"/>
@@ -3745,30 +3715,32 @@
       <c r="S59" s="19"/>
     </row>
     <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="45">
         <v>55</v>
       </c>
       <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="34"/>
+      <c r="I60" s="35"/>
       <c r="J60" s="19"/>
-      <c r="K60" s="25"/>
+      <c r="K60" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
       <c r="S60" s="19"/>
     </row>
     <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="45">
         <v>56</v>
       </c>
       <c r="B61" s="22"/>
@@ -3793,7 +3765,7 @@
       <c r="S61" s="19"/>
     </row>
     <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="45">
         <v>57</v>
       </c>
       <c r="B62" s="22"/>
@@ -3818,7 +3790,7 @@
       <c r="S62" s="19"/>
     </row>
     <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="45">
         <v>58</v>
       </c>
       <c r="B63" s="22"/>
@@ -3843,7 +3815,7 @@
       <c r="S63" s="19"/>
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="45">
         <v>59</v>
       </c>
       <c r="B64" s="22"/>
@@ -3867,290 +3839,258 @@
       <c r="R64" s="19"/>
       <c r="S64" s="19"/>
     </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="45">
         <v>60</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="L65" s="25"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    </row>
+    <row r="66" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45">
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45">
         <v>64</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="45">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="45">
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="45">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="45">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="45">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="45">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="45">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="45">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="45">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="45">
         <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="45">
         <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="45">
         <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="45">
         <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="45">
         <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="45">
         <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="45">
         <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="45">
         <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="45">
         <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="45">
         <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="45">
         <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="45">
         <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="A92" s="45">
         <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="45">
         <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="45">
         <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="45">
         <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="45">
         <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="45">
         <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="45">
         <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="45">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="45">
         <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="45">
         <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="45">
         <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="A103" s="45">
         <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="A104" s="45">
         <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4162,6 +4102,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U15"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
